--- a/Socket電文規格v1.0.xlsx
+++ b/Socket電文規格v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="訊息格式" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Standard Header</t>
   </si>
@@ -489,10 +489,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>0x494f41  (AOI)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>0: HeartBeat</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -541,6 +537,25 @@
         <charset val="136"/>
       </rPr>
       <t>defect index</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x494f41  (AOI)</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">body </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>長度(byte)</t>
     </r>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -1290,7 +1305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1351,128 +1366,134 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="11" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="11" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1944,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="4.5" customHeight="1"/>
@@ -1964,260 +1985,262 @@
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="2:9" ht="49.5" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="14.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="29">
         <v>0</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="29">
         <f>D5+F5-1</f>
         <v>3</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="29">
         <v>4</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="23" t="s">
-        <v>41</v>
+      <c r="H5" s="30"/>
+      <c r="I5" s="22" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="14.25">
-      <c r="B6" s="38"/>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="29">
         <f>E5+1</f>
         <v>4</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="29">
         <f>D6+F6-1</f>
         <v>5</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="29">
         <v>2</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="23" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="14.25">
-      <c r="B7" s="38"/>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="29">
         <f>E6+1</f>
         <v>6</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="29">
         <f t="shared" ref="E7:E11" si="0">D7+F7-1</f>
         <v>7</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="31">
         <v>2</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="23"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="2:9" ht="14.25">
-      <c r="B8" s="38"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="29">
         <f t="shared" ref="D8:D12" si="1">E7+1</f>
         <v>8</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="29">
         <v>1</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="24"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="2:9" ht="14.25">
-      <c r="B9" s="38"/>
-      <c r="C9" s="40" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="29">
         <f>E8+1</f>
         <v>9</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="29">
         <f>D9+F9-1</f>
         <v>12</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="29">
         <v>4</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="24" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="14.25">
-      <c r="B10" s="38"/>
-      <c r="C10" s="40" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="29">
         <f>E9+1</f>
         <v>13</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="29">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="29">
         <v>4</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="29"/>
+      <c r="I10" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="14.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="40" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="29">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="29">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="29">
         <v>4</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="24"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="14.25">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="29">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="25" t="s">
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="15" thickBot="1">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <v>1</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="26" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="25" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2310,7 +2333,7 @@
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.97986111111111107" bottom="0.97986111111111107" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2319,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L65534"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6" customHeight="1"/>
@@ -2335,309 +2358,311 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B2" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="B2" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B3" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="54" t="str">
+      <c r="B3" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="42" t="str">
         <f>訊息格式!C4</f>
         <v>欄位名稱</v>
       </c>
-      <c r="D3" s="54" t="str">
+      <c r="D3" s="42" t="str">
         <f>訊息格式!D4</f>
         <v>起始位置</v>
       </c>
-      <c r="E3" s="54" t="str">
+      <c r="E3" s="42" t="str">
         <f>訊息格式!E4</f>
         <v>結束位置</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="42" t="str">
         <f>訊息格式!F4</f>
         <v>欄位長度(byte)</v>
       </c>
-      <c r="G3" s="54" t="str">
+      <c r="G3" s="42" t="str">
         <f>訊息格式!G4</f>
         <v>欄位型態(C#)</v>
       </c>
-      <c r="H3" s="54" t="str">
+      <c r="H3" s="42" t="str">
         <f>訊息格式!H4</f>
         <v>非必填</v>
       </c>
-      <c r="I3" s="54" t="str">
+      <c r="I3" s="42" t="str">
         <f>訊息格式!I4</f>
         <v>說明</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="16.5">
-      <c r="B4" s="55">
+      <c r="B4" s="43">
         <v>1</v>
       </c>
-      <c r="C4" s="56" t="str">
+      <c r="C4" s="44" t="str">
         <f>訊息格式!C5</f>
         <v>起始字串</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="40">
         <f>訊息格式!D5</f>
         <v>0</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="40">
         <f>訊息格式!E5</f>
         <v>3</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="40">
         <f>訊息格式!F5</f>
         <v>4</v>
       </c>
-      <c r="G4" s="51" t="str">
+      <c r="G4" s="40" t="str">
         <f>訊息格式!G5</f>
         <v>uint</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58" t="str">
+      <c r="H4" s="45"/>
+      <c r="I4" s="46" t="str">
         <f>訊息格式!I5</f>
         <v>0x494f41  (AOI)</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="16.5">
-      <c r="B5" s="55">
+      <c r="B5" s="43">
         <v>2</v>
       </c>
-      <c r="C5" s="56" t="str">
+      <c r="C5" s="44" t="str">
         <f>訊息格式!C6</f>
         <v>版本</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="40">
         <f>訊息格式!D6</f>
         <v>4</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="40">
         <f>訊息格式!E6</f>
         <v>5</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="40">
         <f>訊息格式!F6</f>
         <v>2</v>
       </c>
-      <c r="G5" s="51" t="str">
+      <c r="G5" s="40" t="str">
         <f>訊息格式!G6</f>
         <v>ushort</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58" t="str">
+      <c r="H5" s="45"/>
+      <c r="I5" s="46" t="str">
         <f>訊息格式!I6</f>
         <v>0x0100      (1.0)</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="16.5">
-      <c r="B6" s="55">
+      <c r="B6" s="43">
         <v>3</v>
       </c>
-      <c r="C6" s="56" t="str">
+      <c r="C6" s="44" t="str">
         <f>訊息格式!C7</f>
         <v>保留欄位</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="40">
         <f>訊息格式!D7</f>
         <v>6</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="40">
         <f>訊息格式!E7</f>
         <v>7</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="40">
         <f>訊息格式!F7</f>
         <v>2</v>
       </c>
-      <c r="G6" s="51" t="str">
+      <c r="G6" s="40" t="str">
         <f>訊息格式!G7</f>
         <v>ushort</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="L6" s="50"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="46"/>
+      <c r="L6" s="39"/>
     </row>
     <row r="7" spans="2:12" ht="16.5">
-      <c r="B7" s="55">
+      <c r="B7" s="43">
         <v>4</v>
       </c>
-      <c r="C7" s="56" t="str">
+      <c r="C7" s="44" t="str">
         <f>訊息格式!C8</f>
         <v>訊息種類</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="40">
         <f>訊息格式!D8</f>
         <v>8</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="40">
         <f>訊息格式!E8</f>
         <v>8</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="40">
         <f>訊息格式!F8</f>
         <v>1</v>
       </c>
-      <c r="G7" s="51" t="str">
+      <c r="G7" s="40" t="str">
         <f>訊息格式!G8</f>
         <v>byte</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58" t="s">
-        <v>42</v>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="16.5">
-      <c r="B8" s="55">
+      <c r="B8" s="43">
         <v>6</v>
       </c>
-      <c r="C8" s="56" t="str">
+      <c r="C8" s="44" t="str">
         <f>訊息格式!C9</f>
         <v>訊息日期</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="40">
         <f>訊息格式!D9</f>
         <v>9</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="40">
         <f>訊息格式!E9</f>
         <v>12</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="40">
         <f>訊息格式!F9</f>
         <v>4</v>
       </c>
-      <c r="G8" s="51" t="str">
+      <c r="G8" s="40" t="str">
         <f>訊息格式!G9</f>
         <v>int</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="58" t="str">
+      <c r="H8" s="48"/>
+      <c r="I8" s="46" t="str">
         <f>訊息格式!I9</f>
         <v>yyyyMMdd</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="16.5">
-      <c r="B9" s="55">
+      <c r="B9" s="43">
         <v>7</v>
       </c>
-      <c r="C9" s="56" t="str">
+      <c r="C9" s="44" t="str">
         <f>訊息格式!C10</f>
         <v>訊息時間</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="40">
         <f>訊息格式!D10</f>
         <v>13</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="40">
         <f>訊息格式!E10</f>
         <v>16</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="40">
         <f>訊息格式!F10</f>
         <v>4</v>
       </c>
-      <c r="G9" s="51" t="str">
+      <c r="G9" s="40" t="str">
         <f>訊息格式!G10</f>
         <v>int</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="58" t="str">
+      <c r="H9" s="40"/>
+      <c r="I9" s="46" t="str">
         <f>訊息格式!I10</f>
         <v>HHmmssfff</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="16.5">
-      <c r="B10" s="55">
+      <c r="B10" s="43">
         <v>8</v>
       </c>
-      <c r="C10" s="56" t="str">
+      <c r="C10" s="44" t="str">
         <f>訊息格式!C11</f>
         <v>body長度</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="40">
         <f>訊息格式!D11</f>
         <v>17</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="40">
         <f>訊息格式!E11</f>
         <v>20</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="40">
         <f>訊息格式!F11</f>
         <v>4</v>
       </c>
-      <c r="G10" s="51" t="str">
+      <c r="G10" s="40" t="str">
         <f>訊息格式!G11</f>
         <v>int</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="58"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="62">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:12" ht="16.5">
-      <c r="B11" s="55">
+      <c r="B11" s="43">
         <v>9</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="40">
         <f t="shared" ref="D11:D12" si="0">E10+1</f>
         <v>21</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="40">
         <f t="shared" ref="E11" si="1">D11+F11-1</f>
         <v>21</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="40">
         <v>1</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51" t="s">
+      <c r="H11" s="40"/>
+      <c r="I11" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="16.5">
-      <c r="B12" s="55">
+      <c r="B12" s="43">
         <v>10</v>
       </c>
-      <c r="C12" s="51" t="str">
+      <c r="C12" s="40" t="str">
         <f>訊息格式!C13</f>
         <v>CheckSum</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="40">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="40">
         <f t="shared" ref="E12" si="2">D12+F12-1</f>
         <v>22</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="40">
         <f>訊息格式!F13</f>
         <v>1</v>
       </c>
-      <c r="G12" s="51" t="str">
+      <c r="G12" s="40" t="str">
         <f>訊息格式!G13</f>
         <v>byte</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51" t="str">
+      <c r="H12" s="40"/>
+      <c r="I12" s="40" t="str">
         <f>訊息格式!I13</f>
         <v>除起始字串及CheckSum外的欄位以XOR做加總</v>
       </c>
@@ -2663,7 +2688,7 @@
   <dimension ref="B1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2681,16 +2706,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="5.25" customHeight="1"/>
     <row r="2" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="15" t="s">
         <v>2</v>
       </c>
@@ -2841,7 +2866,7 @@
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -2928,7 +2953,9 @@
         <v>int</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="61">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="12">

--- a/Socket電文規格v1.0.xlsx
+++ b/Socket電文規格v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="訊息格式" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Standard Header</t>
   </si>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>HHmmssfff</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>uint</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -116,14 +112,6 @@
   </si>
   <si>
     <t>n</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>22+n-1</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>22+n</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
@@ -164,10 +152,6 @@
       </rPr>
       <t>echo</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyyyMMdd</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
@@ -422,14 +406,50 @@
   </si>
   <si>
     <r>
+      <t>body</t>
+    </r>
+    <r>
       <rPr>
         <sz val="10"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>訊息日期</t>
-    </r>
+      <t>長度</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>除起始字串及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CheckSum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>外的欄位以XOR做加總</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: HeartBeat</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
@@ -440,26 +460,26 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>訊息時間</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>body</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>長度</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
+      <t>電文規格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(HeartBeat)</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1: </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -467,15 +487,26 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>除起始字串及</t>
+      <t>變更</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-      </rPr>
-      <t>CheckSum</t>
+        <charset val="136"/>
+      </rPr>
+      <t>defect index</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x494f41  (AOI)</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">body </t>
     </r>
     <r>
       <rPr>
@@ -484,79 +515,16 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>外的欄位以XOR做加總</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: HeartBeat</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>電文規格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(HeartBeat)</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變更</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>defect index</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x494f41  (AOI)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">body </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
       <t>長度(byte)</t>
     </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>13+n-1</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>13+n</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -1305,7 +1273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1450,8 +1418,11 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1488,12 +1459,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1963,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I34"/>
+  <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="4.5" customHeight="1"/>
@@ -1985,59 +1950,59 @@
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
+    </row>
+    <row r="3" spans="2:9" ht="49.5" customHeight="1">
+      <c r="B3" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B4" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-    </row>
-    <row r="3" spans="2:9" ht="49.5" customHeight="1">
-      <c r="B3" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-    </row>
-    <row r="4" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B4" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="G4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="H4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="I4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="26" t="s">
+    </row>
+    <row r="5" spans="2:9" ht="14.25">
+      <c r="B5" s="51"/>
+      <c r="C5" s="28" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="14.25">
-      <c r="B5" s="50"/>
-      <c r="C5" s="28" t="s">
-        <v>33</v>
       </c>
       <c r="D5" s="29">
         <v>0</v>
@@ -2050,17 +2015,17 @@
         <v>4</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="14.25">
-      <c r="B6" s="50"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="29">
         <f>E5+1</f>
@@ -2074,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="22" t="s">
@@ -2082,34 +2047,34 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="14.25">
-      <c r="B7" s="50"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" s="29">
         <f>E6+1</f>
         <v>6</v>
       </c>
       <c r="E7" s="29">
-        <f t="shared" ref="E7:E11" si="0">D7+F7-1</f>
+        <f t="shared" ref="E7:E9" si="0">D7+F7-1</f>
         <v>7</v>
       </c>
       <c r="F7" s="31">
         <v>2</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="22"/>
     </row>
     <row r="8" spans="2:9" ht="14.25">
-      <c r="B8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" s="29">
-        <f t="shared" ref="D8:D12" si="1">E7+1</f>
+        <f t="shared" ref="D8:D10" si="1">E7+1</f>
         <v>8</v>
       </c>
       <c r="E8" s="29">
@@ -2120,147 +2085,107 @@
         <v>1</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="2:9" ht="14.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" s="29">
         <f>E8+1</f>
         <v>9</v>
       </c>
       <c r="E9" s="29">
-        <f>D9+F9-1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F9" s="29">
         <v>4</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="H9" s="29"/>
       <c r="I9" s="23" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="14.25">
-      <c r="B10" s="50"/>
-      <c r="C10" s="29" t="s">
-        <v>38</v>
+      <c r="B10" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="29">
-        <f>E9+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E10" s="29">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F10" s="29">
-        <v>4</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="14.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="29">
-        <f t="shared" si="1"/>
+      <c r="E10" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="29">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F11" s="29">
-        <v>4</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="14.25">
-      <c r="B12" s="33" t="s">
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15" thickBot="1">
+      <c r="B11" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="21">
         <v>1</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="29">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="15" thickBot="1">
-      <c r="B13" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="21">
-        <v>1</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" ht="12.75" customHeight="1"/>
-    <row r="16" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="G11" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="14" spans="2:9" ht="16.5" customHeight="1">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="2:3" ht="12.75" customHeight="1">
@@ -2269,65 +2194,57 @@
     </row>
     <row r="20" spans="2:3" ht="12.75" customHeight="1">
       <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="2:3" ht="12.75" customHeight="1">
       <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B22" s="6"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="2:3" ht="12.75" customHeight="1"/>
-    <row r="26" spans="2:3" ht="16.5" customHeight="1">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+    <row r="23" spans="2:3" ht="12.75" customHeight="1"/>
+    <row r="24" spans="2:3" ht="16.5" customHeight="1">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="2:3" ht="12.75" customHeight="1">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="2:3" ht="12.75" customHeight="1">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="2:3" ht="12.75" customHeight="1">
       <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="2:3" ht="12.75" customHeight="1">
       <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="2:3" ht="12.75" customHeight="1">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
     </row>
     <row r="32" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B32" s="6"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="3">
-    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B4:B9"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B2:I2"/>
   </mergeCells>
@@ -2340,10 +2257,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:L65534"/>
+  <dimension ref="B2:L65532"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6" customHeight="1"/>
@@ -2358,23 +2275,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B2" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="B2" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="12.75" customHeight="1">
       <c r="B3" s="41" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C3" s="42" t="str">
         <f>訊息格式!C4</f>
@@ -2519,16 +2436,16 @@
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="46" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="16.5">
       <c r="B8" s="43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="44" t="str">
         <f>訊息格式!C9</f>
-        <v>訊息日期</v>
+        <v>body長度</v>
       </c>
       <c r="D8" s="40">
         <f>訊息格式!D9</f>
@@ -2546,128 +2463,68 @@
         <f>訊息格式!G9</f>
         <v>int</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="46" t="str">
-        <f>訊息格式!I9</f>
-        <v>yyyyMMdd</v>
+      <c r="H8" s="40"/>
+      <c r="I8" s="49">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="16.5">
       <c r="B9" s="43">
-        <v>7</v>
-      </c>
-      <c r="C9" s="44" t="str">
-        <f>訊息格式!C10</f>
-        <v>訊息時間</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="D9" s="40">
-        <f>訊息格式!D10</f>
+        <f t="shared" ref="D9:D10" si="0">E8+1</f>
         <v>13</v>
       </c>
       <c r="E9" s="40">
-        <f>訊息格式!E10</f>
-        <v>16</v>
+        <f t="shared" ref="E9" si="1">D9+F9-1</f>
+        <v>13</v>
       </c>
       <c r="F9" s="40">
-        <f>訊息格式!F10</f>
-        <v>4</v>
-      </c>
-      <c r="G9" s="40" t="str">
-        <f>訊息格式!G10</f>
-        <v>int</v>
+        <v>1</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>12</v>
       </c>
       <c r="H9" s="40"/>
-      <c r="I9" s="46" t="str">
-        <f>訊息格式!I10</f>
-        <v>HHmmssfff</v>
+      <c r="I9" s="40" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="16.5">
       <c r="B10" s="43">
-        <v>8</v>
-      </c>
-      <c r="C10" s="44" t="str">
+        <v>7</v>
+      </c>
+      <c r="C10" s="40" t="str">
         <f>訊息格式!C11</f>
-        <v>body長度</v>
+        <v>CheckSum</v>
       </c>
       <c r="D10" s="40">
-        <f>訊息格式!D11</f>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="E10" s="40">
-        <f>訊息格式!E11</f>
-        <v>20</v>
+        <f t="shared" ref="E10" si="2">D10+F10-1</f>
+        <v>14</v>
       </c>
       <c r="F10" s="40">
         <f>訊息格式!F11</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G10" s="40" t="str">
         <f>訊息格式!G11</f>
-        <v>int</v>
+        <v>byte</v>
       </c>
       <c r="H10" s="40"/>
-      <c r="I10" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="16.5">
-      <c r="B11" s="43">
-        <v>9</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="40">
-        <f t="shared" ref="D11:D12" si="0">E10+1</f>
-        <v>21</v>
-      </c>
-      <c r="E11" s="40">
-        <f t="shared" ref="E11" si="1">D11+F11-1</f>
-        <v>21</v>
-      </c>
-      <c r="F11" s="40">
-        <v>1</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="16.5">
-      <c r="B12" s="43">
-        <v>10</v>
-      </c>
-      <c r="C12" s="40" t="str">
-        <f>訊息格式!C13</f>
-        <v>CheckSum</v>
-      </c>
-      <c r="D12" s="40">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="E12" s="40">
-        <f t="shared" ref="E12" si="2">D12+F12-1</f>
-        <v>22</v>
-      </c>
-      <c r="F12" s="40">
-        <f>訊息格式!F13</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="40" t="str">
-        <f>訊息格式!G13</f>
-        <v>byte</v>
-      </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40" t="str">
-        <f>訊息格式!I13</f>
+      <c r="I10" s="40" t="str">
+        <f>訊息格式!I11</f>
         <v>除起始字串及CheckSum外的欄位以XOR做加總</v>
       </c>
     </row>
-    <row r="65534" ht="12.75" customHeight="1"/>
+    <row r="65532" ht="12.75" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
@@ -2685,10 +2542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J32"/>
+  <dimension ref="B1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B4" sqref="B4:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2706,16 +2563,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="5.25" customHeight="1"/>
     <row r="2" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="15" t="s">
         <v>2</v>
       </c>
@@ -2866,16 +2723,16 @@
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="16" t="str">
         <f>訊息格式!C9</f>
-        <v>訊息日期</v>
+        <v>body長度</v>
       </c>
       <c r="D8" s="11">
         <f>訊息格式!D9</f>
@@ -2893,148 +2750,95 @@
         <f>訊息格式!G9</f>
         <v>int</v>
       </c>
-      <c r="I8" s="18" t="str">
-        <f>訊息格式!I9</f>
-        <v>yyyyMMdd</v>
+      <c r="H8" s="10"/>
+      <c r="I8" s="48">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="12">
-        <v>7</v>
-      </c>
-      <c r="C9" s="16" t="str">
-        <f>訊息格式!C10</f>
-        <v>訊息時間</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="11">
-        <f>訊息格式!D10</f>
+        <f t="shared" ref="D9:D11" si="0">E8+1</f>
         <v>13</v>
       </c>
       <c r="E9" s="11">
-        <f>訊息格式!E10</f>
-        <v>16</v>
+        <f t="shared" ref="E9:E11" si="1">D9+F9-1</f>
+        <v>13</v>
       </c>
       <c r="F9" s="11">
-        <f>訊息格式!F10</f>
-        <v>4</v>
-      </c>
-      <c r="G9" s="11" t="str">
-        <f>訊息格式!G10</f>
-        <v>int</v>
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="18" t="str">
-        <f>訊息格式!I10</f>
-        <v>HHmmssfff</v>
+      <c r="I9" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="12">
-        <v>8</v>
-      </c>
-      <c r="C10" s="16" t="str">
-        <f>訊息格式!C11</f>
-        <v>body長度</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="D10" s="11">
-        <f>訊息格式!D11</f>
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="E10" s="11">
-        <f>訊息格式!E11</f>
-        <v>20</v>
-      </c>
       <c r="F10" s="11">
-        <f>訊息格式!F11</f>
         <v>4</v>
       </c>
-      <c r="G10" s="11" t="str">
-        <f>訊息格式!G11</f>
-        <v>int</v>
+      <c r="G10" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="61">
-        <v>5</v>
-      </c>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" ref="D11:D13" si="0">E10+1</f>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="E11" s="11">
-        <f t="shared" ref="E11:E13" si="1">D11+F11-1</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="F11" s="11">
+        <f>訊息格式!F11</f>
         <v>1</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
+      <c r="G11" s="11" t="str">
+        <f>訊息格式!G11</f>
+        <v>byte</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="10" t="s">
-        <v>16</v>
+      <c r="I11" s="10" t="str">
+        <f>訊息格式!I11</f>
+        <v>除起始字串及CheckSum外的欄位以XOR做加總</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="11">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="E12" s="11">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="F12" s="11">
-        <v>4</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="12">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="11">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="F13" s="11">
-        <f>訊息格式!F13</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="11" t="str">
-        <f>訊息格式!G13</f>
-        <v>byte</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10" t="str">
-        <f>訊息格式!I13</f>
-        <v>除起始字串及CheckSum外的欄位以XOR做加總</v>
-      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="1"/>
@@ -3086,12 +2890,6 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/Socket電文規格v1.0.xlsx
+++ b/Socket電文規格v1.0.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="訊息格式" sheetId="1" r:id="rId1"/>
-    <sheet name="HeartBeat" sheetId="3" r:id="rId2"/>
-    <sheet name="變更defect index" sheetId="5" r:id="rId3"/>
+    <sheet name="訊息格式說明" sheetId="1" r:id="rId1"/>
+    <sheet name="總表" sheetId="6" r:id="rId2"/>
+    <sheet name="HeartBeat" sheetId="3" r:id="rId3"/>
+    <sheet name="請求變更defect index" sheetId="5" r:id="rId4"/>
+    <sheet name="回覆變更defect index" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>Standard Header</t>
   </si>
@@ -27,132 +29,99 @@
     <t>回上頁</t>
   </si>
   <si>
-    <r>
-      <t>電文規格</t>
+    <t>變更index</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckSum</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard Trailer</t>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0100      (1.0)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>ushort</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>變更index類型</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: by 產品數量計算index; 1: by defect數量計算index</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請求</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變更</t>
+      </rPr>
+      <t>echo; 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>回覆</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>defect index)</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>變更index</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckSum</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standard Trailer</t>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0100      (1.0)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>Echo</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>ushort</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>變更index類型</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: by 產品數量計算index; 1: by defect數量計算index</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>body</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>請求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>echo; 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>回覆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>echo</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -165,7 +134,7 @@
       </rPr>
       <t>依實際情況填入的表身欄位。</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -246,7 +215,7 @@
       </rPr>
       <t>所組成，欄位固定順序，如下表所述。</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -281,7 +250,7 @@
       </rPr>
       <t>起始位置</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -293,7 +262,7 @@
       </rPr>
       <t>結束位置</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -313,7 +282,7 @@
       </rPr>
       <t>(byte)</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -333,7 +302,7 @@
       </rPr>
       <t>(C#)</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -345,7 +314,7 @@
       </rPr>
       <t>非必填</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -379,7 +348,7 @@
       </rPr>
       <t>版本</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -391,7 +360,7 @@
       </rPr>
       <t>保留欄位</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -417,7 +386,7 @@
       </rPr>
       <t>長度</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -446,11 +415,11 @@
       </rPr>
       <t>外的欄位以XOR做加總</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>0: HeartBeat</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -470,15 +439,19 @@
       </rPr>
       <t>(HeartBeat)</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>index</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1: </t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x494f41  (AOI)</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">body </t>
     </r>
     <r>
       <rPr>
@@ -487,7 +460,45 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>變更</t>
+      <t>長度(byte)</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>13+n-1</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>13+n</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeartBeat</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>電文名稱</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認連線有效</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">request </t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>電文規格</t>
     </r>
     <r>
       <rPr>
@@ -496,17 +507,39 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>defect index</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x494f41  (AOI)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">body </t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請求變更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>defect index)</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>請求變更defect index</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>回傳碼</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1: </t>
     </r>
     <r>
       <rPr>
@@ -515,17 +548,160 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>長度(byte)</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>13+n-1</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>13+n</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+      <t>請求變更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>defect index</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>回覆變更defect index</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>回覆變更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>defect index</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>電文規格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>回覆變更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>defect index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">變更成功
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">專案尚未就緒
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2:index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">不存在
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>尚未開始檢測</t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -713,14 +889,6 @@
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="新細明體"/>
@@ -765,6 +933,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1143,7 +1318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -1206,7 +1381,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -1273,7 +1448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,9 +1494,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1334,131 +1506,143 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="11" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="11" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1930,9 +2114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="4.5" customHeight="1"/>
   <cols>
@@ -1950,215 +2132,215 @@
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="2:9" ht="49.5" customHeight="1">
+      <c r="B3" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+    </row>
+    <row r="4" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B4" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
-    </row>
-    <row r="3" spans="2:9" ht="49.5" customHeight="1">
-      <c r="B3" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B4" s="50" t="s">
+      <c r="D4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="14.25">
+      <c r="B5" s="50"/>
+      <c r="C5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="28">
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="14.25">
-      <c r="B5" s="51"/>
-      <c r="C5" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="29">
-        <v>0</v>
-      </c>
-      <c r="E5" s="29">
+      <c r="E5" s="28">
         <f>D5+F5-1</f>
         <v>3</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="28">
         <v>4</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="22" t="s">
-        <v>39</v>
+      <c r="G5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="14.25">
-      <c r="B6" s="51"/>
-      <c r="C6" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="29">
+      <c r="B6" s="50"/>
+      <c r="C6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="28">
         <f>E5+1</f>
         <v>4</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <f>D6+F6-1</f>
         <v>5</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="28">
         <v>2</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="22" t="s">
-        <v>8</v>
+      <c r="G6" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="14.25">
-      <c r="B7" s="51"/>
-      <c r="C7" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="29">
+      <c r="B7" s="50"/>
+      <c r="C7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="28">
         <f>E6+1</f>
         <v>6</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <f t="shared" ref="E7:E9" si="0">D7+F7-1</f>
         <v>7</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <v>2</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="2:9" ht="14.25">
-      <c r="B8" s="51"/>
-      <c r="C8" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="29">
+      <c r="B8" s="50"/>
+      <c r="C8" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="28">
         <f t="shared" ref="D8:D10" si="1">E7+1</f>
         <v>8</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <v>1</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="2:9" ht="14.25">
-      <c r="B9" s="51"/>
-      <c r="C9" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="29">
+      <c r="B9" s="50"/>
+      <c r="C9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="28">
         <f>E8+1</f>
         <v>9</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <v>4</v>
       </c>
-      <c r="G9" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="23" t="s">
-        <v>40</v>
+      <c r="G9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="14.25">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="29">
+      <c r="C10" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="28">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E10" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="24" t="s">
-        <v>19</v>
+      <c r="E10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="23" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15" thickBot="1">
-      <c r="B11" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="21">
+      <c r="C11" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="20">
         <v>1</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="25" t="s">
-        <v>34</v>
+      <c r="G11" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="12.75" customHeight="1">
@@ -2248,7 +2430,7 @@
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.97986111111111107" bottom="0.97986111111111107" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -2257,10 +2439,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="42">
+        <v>1</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="42">
+        <v>2</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="42">
+        <v>3</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="28" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" location="'請求變更defect index'!A1" display="請求變更defect index"/>
+    <hyperlink ref="B3" location="HeartBeat!A1" display="HeartBeat"/>
+    <hyperlink ref="B5" location="'回覆變更defect index'!A1" display="'回覆變更defect index'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L65532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6" customHeight="1"/>
@@ -2275,252 +2525,252 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="12.75" customHeight="1">
+      <c r="B3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="15" t="s">
+      <c r="C3" s="41" t="str">
+        <f>訊息格式說明!C4</f>
+        <v>欄位名稱</v>
+      </c>
+      <c r="D3" s="41" t="str">
+        <f>訊息格式說明!D4</f>
+        <v>起始位置</v>
+      </c>
+      <c r="E3" s="41" t="str">
+        <f>訊息格式說明!E4</f>
+        <v>結束位置</v>
+      </c>
+      <c r="F3" s="41" t="str">
+        <f>訊息格式說明!F4</f>
+        <v>欄位長度(byte)</v>
+      </c>
+      <c r="G3" s="41" t="str">
+        <f>訊息格式說明!G4</f>
+        <v>欄位型態(C#)</v>
+      </c>
+      <c r="H3" s="41" t="str">
+        <f>訊息格式說明!H4</f>
+        <v>非必填</v>
+      </c>
+      <c r="I3" s="41" t="str">
+        <f>訊息格式說明!I4</f>
+        <v>說明</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="16.5">
+      <c r="B4" s="42">
+        <v>1</v>
+      </c>
+      <c r="C4" s="43" t="str">
+        <f>訊息格式說明!C5</f>
+        <v>起始字串</v>
+      </c>
+      <c r="D4" s="39">
+        <f>訊息格式說明!D5</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="39">
+        <f>訊息格式說明!E5</f>
+        <v>3</v>
+      </c>
+      <c r="F4" s="39">
+        <f>訊息格式說明!F5</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="39" t="str">
+        <f>訊息格式說明!G5</f>
+        <v>uint</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45" t="str">
+        <f>訊息格式說明!I5</f>
+        <v>0x494f41  (AOI)</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="16.5">
+      <c r="B5" s="42">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B3" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="42" t="str">
-        <f>訊息格式!C4</f>
-        <v>欄位名稱</v>
-      </c>
-      <c r="D3" s="42" t="str">
-        <f>訊息格式!D4</f>
-        <v>起始位置</v>
-      </c>
-      <c r="E3" s="42" t="str">
-        <f>訊息格式!E4</f>
-        <v>結束位置</v>
-      </c>
-      <c r="F3" s="42" t="str">
-        <f>訊息格式!F4</f>
-        <v>欄位長度(byte)</v>
-      </c>
-      <c r="G3" s="42" t="str">
-        <f>訊息格式!G4</f>
-        <v>欄位型態(C#)</v>
-      </c>
-      <c r="H3" s="42" t="str">
-        <f>訊息格式!H4</f>
-        <v>非必填</v>
-      </c>
-      <c r="I3" s="42" t="str">
-        <f>訊息格式!I4</f>
-        <v>說明</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="16.5">
-      <c r="B4" s="43">
+      <c r="C5" s="43" t="str">
+        <f>訊息格式說明!C6</f>
+        <v>版本</v>
+      </c>
+      <c r="D5" s="39">
+        <f>訊息格式說明!D6</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="39">
+        <f>訊息格式說明!E6</f>
+        <v>5</v>
+      </c>
+      <c r="F5" s="39">
+        <f>訊息格式說明!F6</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="39" t="str">
+        <f>訊息格式說明!G6</f>
+        <v>ushort</v>
+      </c>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45" t="str">
+        <f>訊息格式說明!I6</f>
+        <v>0x0100      (1.0)</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="16.5">
+      <c r="B6" s="42">
+        <v>3</v>
+      </c>
+      <c r="C6" s="43" t="str">
+        <f>訊息格式說明!C7</f>
+        <v>保留欄位</v>
+      </c>
+      <c r="D6" s="39">
+        <f>訊息格式說明!D7</f>
+        <v>6</v>
+      </c>
+      <c r="E6" s="39">
+        <f>訊息格式說明!E7</f>
+        <v>7</v>
+      </c>
+      <c r="F6" s="39">
+        <f>訊息格式說明!F7</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="39" t="str">
+        <f>訊息格式說明!G7</f>
+        <v>ushort</v>
+      </c>
+      <c r="H6" s="46"/>
+      <c r="I6" s="45"/>
+      <c r="L6" s="38"/>
+    </row>
+    <row r="7" spans="2:12" ht="16.5">
+      <c r="B7" s="42">
+        <v>4</v>
+      </c>
+      <c r="C7" s="43" t="str">
+        <f>訊息格式說明!C8</f>
+        <v>訊息種類</v>
+      </c>
+      <c r="D7" s="39">
+        <f>訊息格式說明!D8</f>
+        <v>8</v>
+      </c>
+      <c r="E7" s="39">
+        <f>訊息格式說明!E8</f>
+        <v>8</v>
+      </c>
+      <c r="F7" s="39">
+        <f>訊息格式說明!F8</f>
         <v>1</v>
       </c>
-      <c r="C4" s="44" t="str">
-        <f>訊息格式!C5</f>
-        <v>起始字串</v>
-      </c>
-      <c r="D4" s="40">
-        <f>訊息格式!D5</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="40">
-        <f>訊息格式!E5</f>
-        <v>3</v>
-      </c>
-      <c r="F4" s="40">
-        <f>訊息格式!F5</f>
+      <c r="G7" s="39" t="str">
+        <f>訊息格式說明!G8</f>
+        <v>byte</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="16.5">
+      <c r="B8" s="42">
+        <v>5</v>
+      </c>
+      <c r="C8" s="43" t="str">
+        <f>訊息格式說明!C9</f>
+        <v>body長度</v>
+      </c>
+      <c r="D8" s="39">
+        <f>訊息格式說明!D9</f>
+        <v>9</v>
+      </c>
+      <c r="E8" s="39">
+        <f>訊息格式說明!E9</f>
+        <v>12</v>
+      </c>
+      <c r="F8" s="39">
+        <f>訊息格式說明!F9</f>
         <v>4</v>
       </c>
-      <c r="G4" s="40" t="str">
-        <f>訊息格式!G5</f>
-        <v>uint</v>
-      </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46" t="str">
-        <f>訊息格式!I5</f>
-        <v>0x494f41  (AOI)</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="16.5">
-      <c r="B5" s="43">
-        <v>2</v>
-      </c>
-      <c r="C5" s="44" t="str">
-        <f>訊息格式!C6</f>
-        <v>版本</v>
-      </c>
-      <c r="D5" s="40">
-        <f>訊息格式!D6</f>
-        <v>4</v>
-      </c>
-      <c r="E5" s="40">
-        <f>訊息格式!E6</f>
-        <v>5</v>
-      </c>
-      <c r="F5" s="40">
-        <f>訊息格式!F6</f>
-        <v>2</v>
-      </c>
-      <c r="G5" s="40" t="str">
-        <f>訊息格式!G6</f>
-        <v>ushort</v>
-      </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46" t="str">
-        <f>訊息格式!I6</f>
-        <v>0x0100      (1.0)</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="16.5">
-      <c r="B6" s="43">
-        <v>3</v>
-      </c>
-      <c r="C6" s="44" t="str">
-        <f>訊息格式!C7</f>
-        <v>保留欄位</v>
-      </c>
-      <c r="D6" s="40">
-        <f>訊息格式!D7</f>
+      <c r="G8" s="39" t="str">
+        <f>訊息格式說明!G9</f>
+        <v>int</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="16.5">
+      <c r="B9" s="42">
         <v>6</v>
       </c>
-      <c r="E6" s="40">
-        <f>訊息格式!E7</f>
-        <v>7</v>
-      </c>
-      <c r="F6" s="40">
-        <f>訊息格式!F7</f>
-        <v>2</v>
-      </c>
-      <c r="G6" s="40" t="str">
-        <f>訊息格式!G7</f>
-        <v>ushort</v>
-      </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="46"/>
-      <c r="L6" s="39"/>
-    </row>
-    <row r="7" spans="2:12" ht="16.5">
-      <c r="B7" s="43">
-        <v>4</v>
-      </c>
-      <c r="C7" s="44" t="str">
-        <f>訊息格式!C8</f>
-        <v>訊息種類</v>
-      </c>
-      <c r="D7" s="40">
-        <f>訊息格式!D8</f>
+      <c r="C9" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="40">
-        <f>訊息格式!E8</f>
-        <v>8</v>
-      </c>
-      <c r="F7" s="40">
-        <f>訊息格式!F8</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="40" t="str">
-        <f>訊息格式!G8</f>
-        <v>byte</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="16.5">
-      <c r="B8" s="43">
-        <v>5</v>
-      </c>
-      <c r="C8" s="44" t="str">
-        <f>訊息格式!C9</f>
-        <v>body長度</v>
-      </c>
-      <c r="D8" s="40">
-        <f>訊息格式!D9</f>
-        <v>9</v>
-      </c>
-      <c r="E8" s="40">
-        <f>訊息格式!E9</f>
-        <v>12</v>
-      </c>
-      <c r="F8" s="40">
-        <f>訊息格式!F9</f>
-        <v>4</v>
-      </c>
-      <c r="G8" s="40" t="str">
-        <f>訊息格式!G9</f>
-        <v>int</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="16.5">
-      <c r="B9" s="43">
-        <v>6</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="40">
+      <c r="D9" s="39">
         <f t="shared" ref="D9:D10" si="0">E8+1</f>
         <v>13</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="39">
         <f t="shared" ref="E9" si="1">D9+F9-1</f>
         <v>13</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="39">
         <v>1</v>
       </c>
-      <c r="G9" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40" t="s">
-        <v>18</v>
+      <c r="G9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="16.5">
-      <c r="B10" s="43">
+      <c r="B10" s="42">
         <v>7</v>
       </c>
-      <c r="C10" s="40" t="str">
-        <f>訊息格式!C11</f>
+      <c r="C10" s="39" t="str">
+        <f>訊息格式說明!C11</f>
         <v>CheckSum</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="39">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="39">
         <f t="shared" ref="E10" si="2">D10+F10-1</f>
         <v>14</v>
       </c>
-      <c r="F10" s="40">
-        <f>訊息格式!F11</f>
+      <c r="F10" s="39">
+        <f>訊息格式說明!F11</f>
         <v>1</v>
       </c>
-      <c r="G10" s="40" t="str">
-        <f>訊息格式!G11</f>
+      <c r="G10" s="39" t="str">
+        <f>訊息格式說明!G11</f>
         <v>byte</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40" t="str">
-        <f>訊息格式!I11</f>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39" t="str">
+        <f>訊息格式說明!I11</f>
         <v>除起始字串及CheckSum外的欄位以XOR做加總</v>
       </c>
     </row>
@@ -2530,9 +2780,9 @@
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J2" location="訊息格式!A1" display="回上頁"/>
+    <hyperlink ref="J2" location="總表!A1" display="回上頁"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.97986111111111107" bottom="0.97986111111111107" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2540,12 +2790,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2563,50 +2813,50 @@
   <sheetData>
     <row r="1" spans="2:10" ht="5.25" customHeight="1"/>
     <row r="2" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B2" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="15" t="s">
+      <c r="B2" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="62" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="9" t="str">
-        <f>訊息格式!C4</f>
+        <f>訊息格式說明!C4</f>
         <v>欄位名稱</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f>訊息格式!D4</f>
+        <f>訊息格式說明!D4</f>
         <v>起始位置</v>
       </c>
       <c r="E3" s="9" t="str">
-        <f>訊息格式!E4</f>
+        <f>訊息格式說明!E4</f>
         <v>結束位置</v>
       </c>
       <c r="F3" s="9" t="str">
-        <f>訊息格式!F4</f>
+        <f>訊息格式說明!F4</f>
         <v>欄位長度(byte)</v>
       </c>
       <c r="G3" s="9" t="str">
-        <f>訊息格式!G4</f>
+        <f>訊息格式說明!G4</f>
         <v>欄位型態(C#)</v>
       </c>
       <c r="H3" s="9" t="str">
-        <f>訊息格式!H4</f>
+        <f>訊息格式說明!H4</f>
         <v>非必填</v>
       </c>
       <c r="I3" s="9" t="str">
-        <f>訊息格式!I4</f>
+        <f>訊息格式說明!I4</f>
         <v>說明</v>
       </c>
     </row>
@@ -2614,29 +2864,29 @@
       <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="str">
-        <f>訊息格式!C5</f>
+      <c r="C4" s="15" t="str">
+        <f>訊息格式說明!C5</f>
         <v>起始字串</v>
       </c>
       <c r="D4" s="11">
-        <f>訊息格式!D5</f>
+        <f>訊息格式說明!D5</f>
         <v>0</v>
       </c>
       <c r="E4" s="11">
-        <f>訊息格式!E5</f>
+        <f>訊息格式說明!E5</f>
         <v>3</v>
       </c>
       <c r="F4" s="11">
-        <f>訊息格式!F5</f>
+        <f>訊息格式說明!F5</f>
         <v>4</v>
       </c>
       <c r="G4" s="11" t="str">
-        <f>訊息格式!G5</f>
+        <f>訊息格式說明!G5</f>
         <v>uint</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18" t="str">
-        <f>訊息格式!I5</f>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17" t="str">
+        <f>訊息格式說明!I5</f>
         <v>0x494f41  (AOI)</v>
       </c>
     </row>
@@ -2644,29 +2894,29 @@
       <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="str">
-        <f>訊息格式!C6</f>
+      <c r="C5" s="15" t="str">
+        <f>訊息格式說明!C6</f>
         <v>版本</v>
       </c>
       <c r="D5" s="11">
-        <f>訊息格式!D6</f>
+        <f>訊息格式說明!D6</f>
         <v>4</v>
       </c>
       <c r="E5" s="11">
-        <f>訊息格式!E6</f>
+        <f>訊息格式說明!E6</f>
         <v>5</v>
       </c>
       <c r="F5" s="11">
-        <f>訊息格式!F6</f>
+        <f>訊息格式說明!F6</f>
         <v>2</v>
       </c>
       <c r="G5" s="11" t="str">
-        <f>訊息格式!G6</f>
+        <f>訊息格式說明!G6</f>
         <v>ushort</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18" t="str">
-        <f>訊息格式!I6</f>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17" t="str">
+        <f>訊息格式說明!I6</f>
         <v>0x0100      (1.0)</v>
       </c>
     </row>
@@ -2674,84 +2924,84 @@
       <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="str">
-        <f>訊息格式!C7</f>
+      <c r="C6" s="15" t="str">
+        <f>訊息格式說明!C7</f>
         <v>保留欄位</v>
       </c>
       <c r="D6" s="11">
-        <f>訊息格式!D7</f>
+        <f>訊息格式說明!D7</f>
         <v>6</v>
       </c>
       <c r="E6" s="11">
-        <f>訊息格式!E7</f>
+        <f>訊息格式說明!E7</f>
         <v>7</v>
       </c>
       <c r="F6" s="11">
-        <f>訊息格式!F7</f>
+        <f>訊息格式說明!F7</f>
         <v>2</v>
       </c>
       <c r="G6" s="11" t="str">
-        <f>訊息格式!G7</f>
+        <f>訊息格式說明!G7</f>
         <v>ushort</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="12">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="str">
-        <f>訊息格式!C8</f>
+      <c r="C7" s="15" t="str">
+        <f>訊息格式說明!C8</f>
         <v>訊息種類</v>
       </c>
       <c r="D7" s="11">
-        <f>訊息格式!D8</f>
+        <f>訊息格式說明!D8</f>
         <v>8</v>
       </c>
       <c r="E7" s="11">
-        <f>訊息格式!E8</f>
+        <f>訊息格式說明!E8</f>
         <v>8</v>
       </c>
       <c r="F7" s="11">
-        <f>訊息格式!F8</f>
+        <f>訊息格式說明!F8</f>
         <v>1</v>
       </c>
       <c r="G7" s="11" t="str">
-        <f>訊息格式!G8</f>
+        <f>訊息格式說明!G8</f>
         <v>byte</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18" t="s">
-        <v>38</v>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="12">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="str">
-        <f>訊息格式!C9</f>
+      <c r="C8" s="15" t="str">
+        <f>訊息格式說明!C9</f>
         <v>body長度</v>
       </c>
       <c r="D8" s="11">
-        <f>訊息格式!D9</f>
+        <f>訊息格式說明!D9</f>
         <v>9</v>
       </c>
       <c r="E8" s="11">
-        <f>訊息格式!E9</f>
+        <f>訊息格式說明!E9</f>
         <v>12</v>
       </c>
       <c r="F8" s="11">
-        <f>訊息格式!F9</f>
+        <f>訊息格式說明!F9</f>
         <v>4</v>
       </c>
       <c r="G8" s="11" t="str">
-        <f>訊息格式!G9</f>
+        <f>訊息格式說明!G9</f>
         <v>int</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="48">
+      <c r="I8" s="47">
         <v>5</v>
       </c>
     </row>
@@ -2760,7 +3010,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" ref="D9:D11" si="0">E8+1</f>
@@ -2774,11 +3024,11 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -2786,7 +3036,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -2800,7 +3050,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -2810,7 +3060,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
@@ -2821,16 +3071,16 @@
         <v>18</v>
       </c>
       <c r="F11" s="11">
-        <f>訊息格式!F11</f>
+        <f>訊息格式說明!F11</f>
         <v>1</v>
       </c>
       <c r="G11" s="11" t="str">
-        <f>訊息格式!G11</f>
+        <f>訊息格式說明!G11</f>
         <v>byte</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="str">
-        <f>訊息格式!I11</f>
+        <f>訊息格式說明!I11</f>
         <v>除起始字串及CheckSum外的欄位以XOR做加總</v>
       </c>
     </row>
@@ -2896,12 +3146,298 @@
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J2" location="訊息格式!A1" display="回上頁"/>
+    <hyperlink ref="J2" location="總表!A1" display="回上頁"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.97986111111111107" bottom="0.97986111111111107" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.875" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="9" t="str">
+        <f>訊息格式說明!C4</f>
+        <v>欄位名稱</v>
+      </c>
+      <c r="C2" s="9" t="str">
+        <f>訊息格式說明!D4</f>
+        <v>起始位置</v>
+      </c>
+      <c r="D2" s="9" t="str">
+        <f>訊息格式說明!E4</f>
+        <v>結束位置</v>
+      </c>
+      <c r="E2" s="9" t="str">
+        <f>訊息格式說明!F4</f>
+        <v>欄位長度(byte)</v>
+      </c>
+      <c r="F2" s="9" t="str">
+        <f>訊息格式說明!G4</f>
+        <v>欄位型態(C#)</v>
+      </c>
+      <c r="G2" s="9" t="str">
+        <f>訊息格式說明!H4</f>
+        <v>非必填</v>
+      </c>
+      <c r="H2" s="9" t="str">
+        <f>訊息格式說明!I4</f>
+        <v>說明</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="str">
+        <f>訊息格式說明!C5</f>
+        <v>起始字串</v>
+      </c>
+      <c r="C3" s="11">
+        <f>訊息格式說明!D5</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
+        <f>訊息格式說明!E5</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="11">
+        <f>訊息格式說明!F5</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="str">
+        <f>訊息格式說明!G5</f>
+        <v>uint</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17" t="str">
+        <f>訊息格式說明!I5</f>
+        <v>0x494f41  (AOI)</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="str">
+        <f>訊息格式說明!C6</f>
+        <v>版本</v>
+      </c>
+      <c r="C4" s="11">
+        <f>訊息格式說明!D6</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="11">
+        <f>訊息格式說明!E6</f>
+        <v>5</v>
+      </c>
+      <c r="E4" s="11">
+        <f>訊息格式說明!F6</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="11" t="str">
+        <f>訊息格式說明!G6</f>
+        <v>ushort</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="str">
+        <f>訊息格式說明!I6</f>
+        <v>0x0100      (1.0)</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="str">
+        <f>訊息格式說明!C7</f>
+        <v>保留欄位</v>
+      </c>
+      <c r="C5" s="11">
+        <f>訊息格式說明!D7</f>
+        <v>6</v>
+      </c>
+      <c r="D5" s="11">
+        <f>訊息格式說明!E7</f>
+        <v>7</v>
+      </c>
+      <c r="E5" s="11">
+        <f>訊息格式說明!F7</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="11" t="str">
+        <f>訊息格式說明!G7</f>
+        <v>ushort</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="47">
+        <f>訊息格式說明!I7</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="str">
+        <f>訊息格式說明!C8</f>
+        <v>訊息種類</v>
+      </c>
+      <c r="C6" s="11">
+        <f>訊息格式說明!D8</f>
+        <v>8</v>
+      </c>
+      <c r="D6" s="11">
+        <f>訊息格式說明!E8</f>
+        <v>8</v>
+      </c>
+      <c r="E6" s="11">
+        <f>訊息格式說明!F8</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="str">
+        <f>訊息格式說明!G8</f>
+        <v>byte</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="str">
+        <f>訊息格式說明!C9</f>
+        <v>body長度</v>
+      </c>
+      <c r="C7" s="11">
+        <f>訊息格式說明!D9</f>
+        <v>9</v>
+      </c>
+      <c r="D7" s="11">
+        <f>訊息格式說明!E9</f>
+        <v>12</v>
+      </c>
+      <c r="E7" s="11">
+        <f>訊息格式說明!F9</f>
+        <v>4</v>
+      </c>
+      <c r="F7" s="11" t="str">
+        <f>訊息格式說明!G9</f>
+        <v>int</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="57">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="11">
+        <f>訊息格式說明!D10</f>
+        <v>13</v>
+      </c>
+      <c r="D8" s="11">
+        <f>C8+E8-1</f>
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="str">
+        <f>訊息格式說明!C11</f>
+        <v>CheckSum</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" ref="C8:C9" si="0">D8+1</f>
+        <v>14</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" ref="D8:D9" si="1">C9+E9-1</f>
+        <v>14</v>
+      </c>
+      <c r="E9" s="11">
+        <f>訊息格式說明!F11</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="str">
+        <f>訊息格式說明!G11</f>
+        <v>byte</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="17" t="str">
+        <f>訊息格式說明!I11</f>
+        <v>除起始字串及CheckSum外的欄位以XOR做加總</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="28" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I1" location="總表!A1" display="回上頁"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Socket電文規格v1.0.xlsx
+++ b/Socket電文規格v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="訊息格式說明" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Standard Header</t>
   </si>
@@ -701,6 +701,10 @@
       </rPr>
       <t>尚未開始檢測</t>
     </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設port: 35010</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -1596,6 +1600,18 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1631,18 +1647,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2112,13 +2116,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I32"/>
+  <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="4.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
@@ -2130,244 +2136,241 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="4.5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B2" s="55" t="s">
+    <row r="1" spans="2:9" ht="14.25"/>
+    <row r="2" spans="2:9" ht="14.25">
+      <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15" thickBot="1"/>
+    <row r="4" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-    </row>
-    <row r="3" spans="2:9" ht="49.5" customHeight="1">
-      <c r="B3" s="51" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
+    </row>
+    <row r="5" spans="2:9" ht="49.5" customHeight="1">
+      <c r="B5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-    </row>
-    <row r="4" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B4" s="49" t="s">
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
+    </row>
+    <row r="6" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B6" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I6" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="14.25">
-      <c r="B5" s="50"/>
-      <c r="C5" s="27" t="s">
+    <row r="7" spans="2:9" ht="14.25">
+      <c r="B7" s="54"/>
+      <c r="C7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D7" s="28">
         <v>0</v>
       </c>
-      <c r="E5" s="28">
-        <f>D5+F5-1</f>
+      <c r="E7" s="28">
+        <f>D7+F7-1</f>
         <v>3</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F7" s="28">
         <v>4</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="21" t="s">
+      <c r="H7" s="29"/>
+      <c r="I7" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="14.25">
-      <c r="B6" s="50"/>
-      <c r="C6" s="27" t="s">
+    <row r="8" spans="2:9" ht="14.25">
+      <c r="B8" s="54"/>
+      <c r="C8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="28">
-        <f>E5+1</f>
+      <c r="D8" s="28">
+        <f>E7+1</f>
         <v>4</v>
       </c>
-      <c r="E6" s="28">
-        <f>D6+F6-1</f>
+      <c r="E8" s="28">
+        <f>D8+F8-1</f>
         <v>5</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F8" s="28">
         <v>2</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="21" t="s">
+      <c r="H8" s="29"/>
+      <c r="I8" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="14.25">
-      <c r="B7" s="50"/>
-      <c r="C7" s="27" t="s">
+    <row r="9" spans="2:9" ht="14.25">
+      <c r="B9" s="54"/>
+      <c r="C9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="28">
-        <f>E6+1</f>
+      <c r="D9" s="28">
+        <f>E8+1</f>
         <v>6</v>
       </c>
-      <c r="E7" s="28">
-        <f t="shared" ref="E7:E9" si="0">D7+F7-1</f>
+      <c r="E9" s="28">
+        <f t="shared" ref="E9:E11" si="0">D9+F9-1</f>
         <v>7</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F9" s="30">
         <v>2</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="2:9" ht="14.25">
-      <c r="B8" s="50"/>
-      <c r="C8" s="27" t="s">
+      <c r="H9" s="31"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="2:9" ht="14.25">
+      <c r="B10" s="54"/>
+      <c r="C10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="28">
-        <f t="shared" ref="D8:D10" si="1">E7+1</f>
+      <c r="D10" s="28">
+        <f t="shared" ref="D10:D12" si="1">E9+1</f>
         <v>8</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E10" s="28">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F10" s="28">
         <v>1</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="2:9" ht="14.25">
-      <c r="B9" s="50"/>
-      <c r="C9" s="28" t="s">
+      <c r="H10" s="29"/>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="2:9" ht="14.25">
+      <c r="B11" s="54"/>
+      <c r="C11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="28">
-        <f>E8+1</f>
+      <c r="D11" s="28">
+        <f>E10+1</f>
         <v>9</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E11" s="28">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F11" s="28">
         <v>4</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="22" t="s">
+      <c r="H11" s="28"/>
+      <c r="I11" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="14.25">
-      <c r="B10" s="32" t="s">
+    <row r="12" spans="2:9" ht="14.25">
+      <c r="B12" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D12" s="28">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E12" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="23" t="s">
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15" thickBot="1">
-      <c r="B11" s="35" t="s">
+    <row r="13" spans="2:9" ht="15" thickBot="1">
+      <c r="B13" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C13" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F13" s="20">
         <v>1</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="24" t="s">
+      <c r="H13" s="20"/>
+      <c r="I13" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" ht="12.75" customHeight="1"/>
-    <row r="14" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+    <row r="14" spans="2:9" ht="12.75" customHeight="1">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" ht="12.75" customHeight="1"/>
+    <row r="16" spans="2:9" ht="16.5" customHeight="1">
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="2:3" ht="12.75" customHeight="1">
@@ -2376,59 +2379,67 @@
     </row>
     <row r="20" spans="2:3" ht="12.75" customHeight="1">
       <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="2:3" ht="12.75" customHeight="1">
       <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B22" s="7"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="2:3" ht="12.75" customHeight="1"/>
-    <row r="24" spans="2:3" ht="16.5" customHeight="1">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+    <row r="23" spans="2:3" ht="12.75" customHeight="1">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="2:3" ht="12.75" customHeight="1">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="2:3" ht="12.75" customHeight="1"/>
+    <row r="26" spans="2:3" ht="16.5" customHeight="1">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B28" s="6"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="2:3" ht="12.75" customHeight="1">
       <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="2:3" ht="12.75" customHeight="1">
       <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="2:3" ht="12.75" customHeight="1">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
     </row>
     <row r="32" spans="2:3" ht="12.75" customHeight="1">
-      <c r="B32" s="7"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="2:3" ht="12.75" customHeight="1">
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="2:3" ht="12.75" customHeight="1">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="3">
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B4:I4"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.97986111111111107" bottom="0.97986111111111107" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -2464,10 +2475,10 @@
       <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="52" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2475,7 +2486,7 @@
       <c r="A4" s="42">
         <v>2</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="49" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="42" t="s">
@@ -2486,7 +2497,7 @@
       <c r="A5" s="42">
         <v>3</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="49" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -2525,17 +2536,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="62" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="50" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2544,31 +2555,31 @@
         <v>36</v>
       </c>
       <c r="C3" s="41" t="str">
-        <f>訊息格式說明!C4</f>
+        <f>訊息格式說明!C6</f>
         <v>欄位名稱</v>
       </c>
       <c r="D3" s="41" t="str">
-        <f>訊息格式說明!D4</f>
+        <f>訊息格式說明!D6</f>
         <v>起始位置</v>
       </c>
       <c r="E3" s="41" t="str">
-        <f>訊息格式說明!E4</f>
+        <f>訊息格式說明!E6</f>
         <v>結束位置</v>
       </c>
       <c r="F3" s="41" t="str">
-        <f>訊息格式說明!F4</f>
+        <f>訊息格式說明!F6</f>
         <v>欄位長度(byte)</v>
       </c>
       <c r="G3" s="41" t="str">
-        <f>訊息格式說明!G4</f>
+        <f>訊息格式說明!G6</f>
         <v>欄位型態(C#)</v>
       </c>
       <c r="H3" s="41" t="str">
-        <f>訊息格式說明!H4</f>
+        <f>訊息格式說明!H6</f>
         <v>非必填</v>
       </c>
       <c r="I3" s="41" t="str">
-        <f>訊息格式說明!I4</f>
+        <f>訊息格式說明!I6</f>
         <v>說明</v>
       </c>
     </row>
@@ -2577,28 +2588,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="43" t="str">
-        <f>訊息格式說明!C5</f>
+        <f>訊息格式說明!C7</f>
         <v>起始字串</v>
       </c>
       <c r="D4" s="39">
-        <f>訊息格式說明!D5</f>
+        <f>訊息格式說明!D7</f>
         <v>0</v>
       </c>
       <c r="E4" s="39">
-        <f>訊息格式說明!E5</f>
+        <f>訊息格式說明!E7</f>
         <v>3</v>
       </c>
       <c r="F4" s="39">
-        <f>訊息格式說明!F5</f>
+        <f>訊息格式說明!F7</f>
         <v>4</v>
       </c>
       <c r="G4" s="39" t="str">
-        <f>訊息格式說明!G5</f>
+        <f>訊息格式說明!G7</f>
         <v>uint</v>
       </c>
       <c r="H4" s="44"/>
       <c r="I4" s="45" t="str">
-        <f>訊息格式說明!I5</f>
+        <f>訊息格式說明!I7</f>
         <v>0x494f41  (AOI)</v>
       </c>
     </row>
@@ -2607,28 +2618,28 @@
         <v>2</v>
       </c>
       <c r="C5" s="43" t="str">
-        <f>訊息格式說明!C6</f>
+        <f>訊息格式說明!C8</f>
         <v>版本</v>
       </c>
       <c r="D5" s="39">
-        <f>訊息格式說明!D6</f>
+        <f>訊息格式說明!D8</f>
         <v>4</v>
       </c>
       <c r="E5" s="39">
-        <f>訊息格式說明!E6</f>
+        <f>訊息格式說明!E8</f>
         <v>5</v>
       </c>
       <c r="F5" s="39">
-        <f>訊息格式說明!F6</f>
+        <f>訊息格式說明!F8</f>
         <v>2</v>
       </c>
       <c r="G5" s="39" t="str">
-        <f>訊息格式說明!G6</f>
+        <f>訊息格式說明!G8</f>
         <v>ushort</v>
       </c>
       <c r="H5" s="44"/>
       <c r="I5" s="45" t="str">
-        <f>訊息格式說明!I6</f>
+        <f>訊息格式說明!I8</f>
         <v>0x0100      (1.0)</v>
       </c>
     </row>
@@ -2637,23 +2648,23 @@
         <v>3</v>
       </c>
       <c r="C6" s="43" t="str">
-        <f>訊息格式說明!C7</f>
+        <f>訊息格式說明!C9</f>
         <v>保留欄位</v>
       </c>
       <c r="D6" s="39">
-        <f>訊息格式說明!D7</f>
+        <f>訊息格式說明!D9</f>
         <v>6</v>
       </c>
       <c r="E6" s="39">
-        <f>訊息格式說明!E7</f>
+        <f>訊息格式說明!E9</f>
         <v>7</v>
       </c>
       <c r="F6" s="39">
-        <f>訊息格式說明!F7</f>
+        <f>訊息格式說明!F9</f>
         <v>2</v>
       </c>
       <c r="G6" s="39" t="str">
-        <f>訊息格式說明!G7</f>
+        <f>訊息格式說明!G9</f>
         <v>ushort</v>
       </c>
       <c r="H6" s="46"/>
@@ -2665,23 +2676,23 @@
         <v>4</v>
       </c>
       <c r="C7" s="43" t="str">
-        <f>訊息格式說明!C8</f>
+        <f>訊息格式說明!C10</f>
         <v>訊息種類</v>
       </c>
       <c r="D7" s="39">
-        <f>訊息格式說明!D8</f>
+        <f>訊息格式說明!D10</f>
         <v>8</v>
       </c>
       <c r="E7" s="39">
-        <f>訊息格式說明!E8</f>
+        <f>訊息格式說明!E10</f>
         <v>8</v>
       </c>
       <c r="F7" s="39">
-        <f>訊息格式說明!F8</f>
+        <f>訊息格式說明!F10</f>
         <v>1</v>
       </c>
       <c r="G7" s="39" t="str">
-        <f>訊息格式說明!G8</f>
+        <f>訊息格式說明!G10</f>
         <v>byte</v>
       </c>
       <c r="H7" s="44"/>
@@ -2694,23 +2705,23 @@
         <v>5</v>
       </c>
       <c r="C8" s="43" t="str">
-        <f>訊息格式說明!C9</f>
+        <f>訊息格式說明!C11</f>
         <v>body長度</v>
       </c>
       <c r="D8" s="39">
-        <f>訊息格式說明!D9</f>
+        <f>訊息格式說明!D11</f>
         <v>9</v>
       </c>
       <c r="E8" s="39">
-        <f>訊息格式說明!E9</f>
+        <f>訊息格式說明!E11</f>
         <v>12</v>
       </c>
       <c r="F8" s="39">
-        <f>訊息格式說明!F9</f>
+        <f>訊息格式說明!F11</f>
         <v>4</v>
       </c>
       <c r="G8" s="39" t="str">
-        <f>訊息格式說明!G9</f>
+        <f>訊息格式說明!G11</f>
         <v>int</v>
       </c>
       <c r="H8" s="39"/>
@@ -2749,7 +2760,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="39" t="str">
-        <f>訊息格式說明!C11</f>
+        <f>訊息格式說明!C13</f>
         <v>CheckSum</v>
       </c>
       <c r="D10" s="39">
@@ -2761,16 +2772,16 @@
         <v>14</v>
       </c>
       <c r="F10" s="39">
-        <f>訊息格式說明!F11</f>
+        <f>訊息格式說明!F13</f>
         <v>1</v>
       </c>
       <c r="G10" s="39" t="str">
-        <f>訊息格式說明!G11</f>
+        <f>訊息格式說明!G13</f>
         <v>byte</v>
       </c>
       <c r="H10" s="39"/>
       <c r="I10" s="39" t="str">
-        <f>訊息格式說明!I11</f>
+        <f>訊息格式說明!I13</f>
         <v>除起始字串及CheckSum外的欄位以XOR做加總</v>
       </c>
     </row>
@@ -2795,7 +2806,7 @@
   <dimension ref="B1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2813,17 +2824,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="5.25" customHeight="1"/>
     <row r="2" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="62" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="50" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2832,31 +2843,31 @@
         <v>6</v>
       </c>
       <c r="C3" s="9" t="str">
-        <f>訊息格式說明!C4</f>
+        <f>訊息格式說明!C6</f>
         <v>欄位名稱</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f>訊息格式說明!D4</f>
+        <f>訊息格式說明!D6</f>
         <v>起始位置</v>
       </c>
       <c r="E3" s="9" t="str">
-        <f>訊息格式說明!E4</f>
+        <f>訊息格式說明!E6</f>
         <v>結束位置</v>
       </c>
       <c r="F3" s="9" t="str">
-        <f>訊息格式說明!F4</f>
+        <f>訊息格式說明!F6</f>
         <v>欄位長度(byte)</v>
       </c>
       <c r="G3" s="9" t="str">
-        <f>訊息格式說明!G4</f>
+        <f>訊息格式說明!G6</f>
         <v>欄位型態(C#)</v>
       </c>
       <c r="H3" s="9" t="str">
-        <f>訊息格式說明!H4</f>
+        <f>訊息格式說明!H6</f>
         <v>非必填</v>
       </c>
       <c r="I3" s="9" t="str">
-        <f>訊息格式說明!I4</f>
+        <f>訊息格式說明!I6</f>
         <v>說明</v>
       </c>
     </row>
@@ -2865,28 +2876,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="15" t="str">
-        <f>訊息格式說明!C5</f>
+        <f>訊息格式說明!C7</f>
         <v>起始字串</v>
       </c>
       <c r="D4" s="11">
-        <f>訊息格式說明!D5</f>
+        <f>訊息格式說明!D7</f>
         <v>0</v>
       </c>
       <c r="E4" s="11">
-        <f>訊息格式說明!E5</f>
+        <f>訊息格式說明!E7</f>
         <v>3</v>
       </c>
       <c r="F4" s="11">
-        <f>訊息格式說明!F5</f>
+        <f>訊息格式說明!F7</f>
         <v>4</v>
       </c>
       <c r="G4" s="11" t="str">
-        <f>訊息格式說明!G5</f>
+        <f>訊息格式說明!G7</f>
         <v>uint</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="17" t="str">
-        <f>訊息格式說明!I5</f>
+        <f>訊息格式說明!I7</f>
         <v>0x494f41  (AOI)</v>
       </c>
     </row>
@@ -2895,28 +2906,28 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="str">
-        <f>訊息格式說明!C6</f>
+        <f>訊息格式說明!C8</f>
         <v>版本</v>
       </c>
       <c r="D5" s="11">
-        <f>訊息格式說明!D6</f>
+        <f>訊息格式說明!D8</f>
         <v>4</v>
       </c>
       <c r="E5" s="11">
-        <f>訊息格式說明!E6</f>
+        <f>訊息格式說明!E8</f>
         <v>5</v>
       </c>
       <c r="F5" s="11">
-        <f>訊息格式說明!F6</f>
+        <f>訊息格式說明!F8</f>
         <v>2</v>
       </c>
       <c r="G5" s="11" t="str">
-        <f>訊息格式說明!G6</f>
+        <f>訊息格式說明!G8</f>
         <v>ushort</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="17" t="str">
-        <f>訊息格式說明!I6</f>
+        <f>訊息格式說明!I8</f>
         <v>0x0100      (1.0)</v>
       </c>
     </row>
@@ -2925,23 +2936,23 @@
         <v>3</v>
       </c>
       <c r="C6" s="15" t="str">
-        <f>訊息格式說明!C7</f>
+        <f>訊息格式說明!C9</f>
         <v>保留欄位</v>
       </c>
       <c r="D6" s="11">
-        <f>訊息格式說明!D7</f>
+        <f>訊息格式說明!D9</f>
         <v>6</v>
       </c>
       <c r="E6" s="11">
-        <f>訊息格式說明!E7</f>
+        <f>訊息格式說明!E9</f>
         <v>7</v>
       </c>
       <c r="F6" s="11">
-        <f>訊息格式說明!F7</f>
+        <f>訊息格式說明!F9</f>
         <v>2</v>
       </c>
       <c r="G6" s="11" t="str">
-        <f>訊息格式說明!G7</f>
+        <f>訊息格式說明!G9</f>
         <v>ushort</v>
       </c>
       <c r="H6" s="18"/>
@@ -2952,23 +2963,23 @@
         <v>4</v>
       </c>
       <c r="C7" s="15" t="str">
-        <f>訊息格式說明!C8</f>
+        <f>訊息格式說明!C10</f>
         <v>訊息種類</v>
       </c>
       <c r="D7" s="11">
-        <f>訊息格式說明!D8</f>
+        <f>訊息格式說明!D10</f>
         <v>8</v>
       </c>
       <c r="E7" s="11">
-        <f>訊息格式說明!E8</f>
+        <f>訊息格式說明!E10</f>
         <v>8</v>
       </c>
       <c r="F7" s="11">
-        <f>訊息格式說明!F8</f>
+        <f>訊息格式說明!F10</f>
         <v>1</v>
       </c>
       <c r="G7" s="11" t="str">
-        <f>訊息格式說明!G8</f>
+        <f>訊息格式說明!G10</f>
         <v>byte</v>
       </c>
       <c r="H7" s="16"/>
@@ -2981,23 +2992,23 @@
         <v>5</v>
       </c>
       <c r="C8" s="15" t="str">
-        <f>訊息格式說明!C9</f>
+        <f>訊息格式說明!C11</f>
         <v>body長度</v>
       </c>
       <c r="D8" s="11">
-        <f>訊息格式說明!D9</f>
+        <f>訊息格式說明!D11</f>
         <v>9</v>
       </c>
       <c r="E8" s="11">
-        <f>訊息格式說明!E9</f>
+        <f>訊息格式說明!E11</f>
         <v>12</v>
       </c>
       <c r="F8" s="11">
-        <f>訊息格式說明!F9</f>
+        <f>訊息格式說明!F11</f>
         <v>4</v>
       </c>
       <c r="G8" s="11" t="str">
-        <f>訊息格式說明!G9</f>
+        <f>訊息格式說明!G11</f>
         <v>int</v>
       </c>
       <c r="H8" s="10"/>
@@ -3071,16 +3082,16 @@
         <v>18</v>
       </c>
       <c r="F11" s="11">
-        <f>訊息格式說明!F11</f>
+        <f>訊息格式說明!F13</f>
         <v>1</v>
       </c>
       <c r="G11" s="11" t="str">
-        <f>訊息格式說明!G11</f>
+        <f>訊息格式說明!G13</f>
         <v>byte</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="str">
-        <f>訊息格式說明!I11</f>
+        <f>訊息格式說明!I13</f>
         <v>除起始字串及CheckSum外的欄位以XOR做加總</v>
       </c>
     </row>
@@ -3160,8 +3171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3173,50 +3184,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="62" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="50" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="27">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="9" t="str">
-        <f>訊息格式說明!C4</f>
+        <f>訊息格式說明!C6</f>
         <v>欄位名稱</v>
       </c>
       <c r="C2" s="9" t="str">
-        <f>訊息格式說明!D4</f>
+        <f>訊息格式說明!D6</f>
         <v>起始位置</v>
       </c>
       <c r="D2" s="9" t="str">
-        <f>訊息格式說明!E4</f>
+        <f>訊息格式說明!E6</f>
         <v>結束位置</v>
       </c>
       <c r="E2" s="9" t="str">
-        <f>訊息格式說明!F4</f>
+        <f>訊息格式說明!F6</f>
         <v>欄位長度(byte)</v>
       </c>
       <c r="F2" s="9" t="str">
-        <f>訊息格式說明!G4</f>
+        <f>訊息格式說明!G6</f>
         <v>欄位型態(C#)</v>
       </c>
       <c r="G2" s="9" t="str">
-        <f>訊息格式說明!H4</f>
+        <f>訊息格式說明!H6</f>
         <v>非必填</v>
       </c>
       <c r="H2" s="9" t="str">
-        <f>訊息格式說明!I4</f>
+        <f>訊息格式說明!I6</f>
         <v>說明</v>
       </c>
       <c r="I2" s="1"/>
@@ -3226,28 +3237,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="str">
-        <f>訊息格式說明!C5</f>
+        <f>訊息格式說明!C7</f>
         <v>起始字串</v>
       </c>
       <c r="C3" s="11">
-        <f>訊息格式說明!D5</f>
+        <f>訊息格式說明!D7</f>
         <v>0</v>
       </c>
       <c r="D3" s="11">
-        <f>訊息格式說明!E5</f>
+        <f>訊息格式說明!E7</f>
         <v>3</v>
       </c>
       <c r="E3" s="11">
-        <f>訊息格式說明!F5</f>
+        <f>訊息格式說明!F7</f>
         <v>4</v>
       </c>
       <c r="F3" s="11" t="str">
-        <f>訊息格式說明!G5</f>
+        <f>訊息格式說明!G7</f>
         <v>uint</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="17" t="str">
-        <f>訊息格式說明!I5</f>
+        <f>訊息格式說明!I7</f>
         <v>0x494f41  (AOI)</v>
       </c>
       <c r="I3" s="1"/>
@@ -3257,28 +3268,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="str">
-        <f>訊息格式說明!C6</f>
+        <f>訊息格式說明!C8</f>
         <v>版本</v>
       </c>
       <c r="C4" s="11">
-        <f>訊息格式說明!D6</f>
+        <f>訊息格式說明!D8</f>
         <v>4</v>
       </c>
       <c r="D4" s="11">
-        <f>訊息格式說明!E6</f>
+        <f>訊息格式說明!E8</f>
         <v>5</v>
       </c>
       <c r="E4" s="11">
-        <f>訊息格式說明!F6</f>
+        <f>訊息格式說明!F8</f>
         <v>2</v>
       </c>
       <c r="F4" s="11" t="str">
-        <f>訊息格式說明!G6</f>
+        <f>訊息格式說明!G8</f>
         <v>ushort</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="17" t="str">
-        <f>訊息格式說明!I6</f>
+        <f>訊息格式說明!I8</f>
         <v>0x0100      (1.0)</v>
       </c>
       <c r="I4" s="1"/>
@@ -3288,28 +3299,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="str">
-        <f>訊息格式說明!C7</f>
+        <f>訊息格式說明!C9</f>
         <v>保留欄位</v>
       </c>
       <c r="C5" s="11">
-        <f>訊息格式說明!D7</f>
+        <f>訊息格式說明!D9</f>
         <v>6</v>
       </c>
       <c r="D5" s="11">
-        <f>訊息格式說明!E7</f>
+        <f>訊息格式說明!E9</f>
         <v>7</v>
       </c>
       <c r="E5" s="11">
-        <f>訊息格式說明!F7</f>
+        <f>訊息格式說明!F9</f>
         <v>2</v>
       </c>
       <c r="F5" s="11" t="str">
-        <f>訊息格式說明!G7</f>
+        <f>訊息格式說明!G9</f>
         <v>ushort</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="47">
-        <f>訊息格式說明!I7</f>
+        <f>訊息格式說明!I9</f>
         <v>0</v>
       </c>
       <c r="I5" s="1"/>
@@ -3319,23 +3330,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="str">
-        <f>訊息格式說明!C8</f>
+        <f>訊息格式說明!C10</f>
         <v>訊息種類</v>
       </c>
       <c r="C6" s="11">
-        <f>訊息格式說明!D8</f>
+        <f>訊息格式說明!D10</f>
         <v>8</v>
       </c>
       <c r="D6" s="11">
-        <f>訊息格式說明!E8</f>
+        <f>訊息格式說明!E10</f>
         <v>8</v>
       </c>
       <c r="E6" s="11">
-        <f>訊息格式說明!F8</f>
+        <f>訊息格式說明!F10</f>
         <v>1</v>
       </c>
       <c r="F6" s="11" t="str">
-        <f>訊息格式說明!G8</f>
+        <f>訊息格式說明!G10</f>
         <v>byte</v>
       </c>
       <c r="G6" s="16"/>
@@ -3349,27 +3360,29 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="str">
-        <f>訊息格式說明!C9</f>
+        <f>訊息格式說明!C11</f>
         <v>body長度</v>
       </c>
       <c r="C7" s="11">
-        <f>訊息格式說明!D9</f>
+        <f>訊息格式說明!D11</f>
         <v>9</v>
       </c>
       <c r="D7" s="11">
-        <f>訊息格式說明!E9</f>
+        <f>訊息格式說明!E11</f>
         <v>12</v>
       </c>
       <c r="E7" s="11">
-        <f>訊息格式說明!F9</f>
+        <f>訊息格式說明!F11</f>
         <v>4</v>
       </c>
       <c r="F7" s="11" t="str">
-        <f>訊息格式說明!G9</f>
+        <f>訊息格式說明!G11</f>
         <v>int</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="17"/>
+      <c r="H7" s="17">
+        <v>1</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="57">
@@ -3380,7 +3393,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="11">
-        <f>訊息格式說明!D10</f>
+        <f>訊息格式說明!D12</f>
         <v>13</v>
       </c>
       <c r="D8" s="11">
@@ -3404,28 +3417,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="15" t="str">
-        <f>訊息格式說明!C11</f>
+        <f>訊息格式說明!C13</f>
         <v>CheckSum</v>
       </c>
       <c r="C9" s="11">
-        <f t="shared" ref="C8:C9" si="0">D8+1</f>
+        <f t="shared" ref="C9" si="0">D8+1</f>
         <v>14</v>
       </c>
       <c r="D9" s="11">
-        <f t="shared" ref="D8:D9" si="1">C9+E9-1</f>
+        <f t="shared" ref="D9" si="1">C9+E9-1</f>
         <v>14</v>
       </c>
       <c r="E9" s="11">
-        <f>訊息格式說明!F11</f>
+        <f>訊息格式說明!F13</f>
         <v>1</v>
       </c>
       <c r="F9" s="11" t="str">
-        <f>訊息格式說明!G11</f>
+        <f>訊息格式說明!G13</f>
         <v>byte</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="17" t="str">
-        <f>訊息格式說明!I11</f>
+        <f>訊息格式說明!I13</f>
         <v>除起始字串及CheckSum外的欄位以XOR做加總</v>
       </c>
       <c r="I9" s="1"/>

--- a/Socket電文規格v1.0.xlsx
+++ b/Socket電文規格v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="訊息格式說明" sheetId="1" r:id="rId1"/>
@@ -2118,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="4.5" customHeight="1"/>
@@ -2805,8 +2805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
